--- a/output/fit_clients/fit_round_482.xlsx
+++ b/output/fit_clients/fit_round_482.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1954716953.337684</v>
+        <v>1991229927.136961</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08272554080234631</v>
+        <v>0.08990868703181332</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03560500964633249</v>
+        <v>0.0341108096523253</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>977358466.2829161</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2157699780.986804</v>
+        <v>1888924031.509674</v>
       </c>
       <c r="F3" t="n">
-        <v>0.162601166035398</v>
+        <v>0.1556215520351927</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04172287225629861</v>
+        <v>0.04746038032141301</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1078849955.003904</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4964658880.491878</v>
+        <v>4080043237.001443</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1459022344265765</v>
+        <v>0.1577264095633029</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03519076496405073</v>
+        <v>0.02869756461017987</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>174</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2482329522.797316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2741773718.997133</v>
+        <v>4216901606.181395</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07839223973115046</v>
+        <v>0.08537478752450463</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03814008226032869</v>
+        <v>0.03155978865756535</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>178</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1370886946.47827</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2817050449.201098</v>
+        <v>2453913423.208778</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1076123374830558</v>
+        <v>0.134541087442881</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05289539015812933</v>
+        <v>0.03480935215983778</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>92</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1408525165.791619</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2693974037.750912</v>
+        <v>2360276065.610044</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09923484602531055</v>
+        <v>0.07712964599148621</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03924062446261402</v>
+        <v>0.04522435189835441</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>150</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1346987013.218283</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3128356289.547239</v>
+        <v>2574909527.185048</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2092605349373965</v>
+        <v>0.2071919594192776</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03244146634179932</v>
+        <v>0.02472485370291044</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>153</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1564178215.433386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2110119464.667301</v>
+        <v>2298521518.680595</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1970788172980195</v>
+        <v>0.1565486951732526</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03666636911201986</v>
+        <v>0.03011471881094265</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1055059743.685322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4925270591.051793</v>
+        <v>4613246978.739646</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1878194733109766</v>
+        <v>0.1918305955928153</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03425475654874417</v>
+        <v>0.04435847014693724</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>202</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2462635389.106125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3525608422.737569</v>
+        <v>3873250882.077265</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1210159407276027</v>
+        <v>0.1410872291388882</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04929684924933168</v>
+        <v>0.04886650480376363</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>199</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1762804191.033786</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3164004607.390402</v>
+        <v>2383548157.872247</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1268401803971851</v>
+        <v>0.1951784269896819</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05229923172735079</v>
+        <v>0.0506866870170522</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>163</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1582002336.752834</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3405974906.834046</v>
+        <v>4531430032.923359</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07433729775121493</v>
+        <v>0.08314810810410796</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03036477287421672</v>
+        <v>0.02030765168161257</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>162</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1702987538.537176</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2390434981.929677</v>
+        <v>3391901125.811545</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1271642742739918</v>
+        <v>0.1637641899839972</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03714268581079548</v>
+        <v>0.02999048793768385</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>155</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1195217569.567842</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1492167815.883708</v>
+        <v>1154693423.292686</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06732888280832555</v>
+        <v>0.1002147169163983</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04404168446323108</v>
+        <v>0.03372072820728112</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>746083991.6992179</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2159141104.803972</v>
+        <v>1974850434.382033</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1062991290755389</v>
+        <v>0.1115010519957963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03444268207611478</v>
+        <v>0.04062811577198194</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1079570613.688977</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4532837809.715124</v>
+        <v>3341258840.563623</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1620261212629301</v>
+        <v>0.1281175413976479</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04311638986463044</v>
+        <v>0.04413322122831458</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>142</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2266418913.098542</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2580473055.841949</v>
+        <v>3231138018.45538</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1695548663947715</v>
+        <v>0.1264677979475191</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02427714114596244</v>
+        <v>0.02098216043029433</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>158</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1290236588.580986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1285251271.507585</v>
+        <v>1044619257.28697</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1562607200341673</v>
+        <v>0.1472473884689962</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01983842891284459</v>
+        <v>0.02483563571940202</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>642625734.483008</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1824183807.747125</v>
+        <v>1736223275.873323</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1015711261082955</v>
+        <v>0.1418754408552329</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02009735139652925</v>
+        <v>0.02970993235198534</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>912091948.9535359</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2222747675.020541</v>
+        <v>1965026586.764654</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06417226025709556</v>
+        <v>0.09966025976862888</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02970078751211907</v>
+        <v>0.02837570480269465</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1111373852.156834</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3857733343.184591</v>
+        <v>3433840294.940767</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09781662442124692</v>
+        <v>0.08710366578445007</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0404227073076335</v>
+        <v>0.05633099011221191</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1928866681.780328</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1551180176.039891</v>
+        <v>1485186449.257006</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1383894133240247</v>
+        <v>0.145689618668783</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0532786755268146</v>
+        <v>0.03558136435816471</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>775590065.379527</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4017455082.486296</v>
+        <v>3614543902.526432</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1431011549157162</v>
+        <v>0.1464595497362585</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0327127385278682</v>
+        <v>0.03316555168084547</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>141</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2008727508.071019</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1162421023.756711</v>
+        <v>1186580239.744617</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1124808760523335</v>
+        <v>0.07864149720836532</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03041569869641624</v>
+        <v>0.02378099624969897</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>581210538.5186495</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>952688021.9656675</v>
+        <v>1197881408.141452</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1027698934833078</v>
+        <v>0.09185211667902332</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03620365364648398</v>
+        <v>0.029141420773319</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>476343971.5158877</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4011657838.928675</v>
+        <v>3542089566.484223</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1405798741265311</v>
+        <v>0.1115546263257067</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02124014162664468</v>
+        <v>0.02664658306465833</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2005828929.040239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2697023247.013733</v>
+        <v>3506060585.504473</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1076469797340566</v>
+        <v>0.1102590041476106</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03544221039400713</v>
+        <v>0.03040397286249092</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1348511608.433298</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4931247553.283971</v>
+        <v>5340652772.845066</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1367287712631097</v>
+        <v>0.136628978426176</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04660877990459281</v>
+        <v>0.02867322639757703</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>213</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2465623728.969795</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1781515839.072866</v>
+        <v>2329948645.778089</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08987074208605668</v>
+        <v>0.08427765106622055</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03066658155386636</v>
+        <v>0.03402761333103025</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>890757932.1329001</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1183427693.518138</v>
+        <v>1434197970.316787</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06858999145670475</v>
+        <v>0.09033804515987968</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03167574413789174</v>
+        <v>0.05174985678564749</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>591713802.1442114</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1151250511.733763</v>
+        <v>1737291271.387023</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07670189691226866</v>
+        <v>0.1109980316325664</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02694437555413259</v>
+        <v>0.02867403987487272</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>575625252.0080217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3027568930.708659</v>
+        <v>2427876087.129852</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1324548773209442</v>
+        <v>0.1680849015603572</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04309199538105848</v>
+        <v>0.05365244056251268</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>148</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1513784458.680197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1321147174.823861</v>
+        <v>1244983585.826936</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08828252730429573</v>
+        <v>0.07553595266997616</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02784883234698595</v>
+        <v>0.02367053948187316</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>660573572.6662776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1067780876.767956</v>
+        <v>1008016138.210959</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08885445165184787</v>
+        <v>0.1164649289551296</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03865752433983228</v>
+        <v>0.02994325313115547</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>533890442.1166437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3231887112.385514</v>
+        <v>2165291479.304888</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1275939332176458</v>
+        <v>0.1505037686587795</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01985457263269579</v>
+        <v>0.02610953163789179</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>122</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1615943519.562603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2509383344.14258</v>
+        <v>2214299817.649333</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09059964204945987</v>
+        <v>0.1081753123670975</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03661596329240551</v>
+        <v>0.0395663557895662</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>129</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1254691769.435585</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2083948352.604846</v>
+        <v>1812866616.805491</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07915082156090593</v>
+        <v>0.0926173237028958</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02811520426327299</v>
+        <v>0.03439277060014672</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1041974143.09743</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1988217373.787675</v>
+        <v>1513304183.643046</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1537754122718358</v>
+        <v>0.1260224628727587</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02489343011991161</v>
+        <v>0.02110436538804483</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>994108683.2342473</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1371030545.335382</v>
+        <v>1523786165.924572</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1622432328285048</v>
+        <v>0.1162771977923662</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04077356063748951</v>
+        <v>0.0592951984803765</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>685515271.1726646</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1940365986.663134</v>
+        <v>2363320537.121227</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1300662844840172</v>
+        <v>0.1056633319871855</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03223782528266445</v>
+        <v>0.0340693467455626</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>117</v>
-      </c>
-      <c r="J41" t="n">
-        <v>970183073.4632968</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2712124389.205333</v>
+        <v>3351893935.249532</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1046393062176837</v>
+        <v>0.09851148096397953</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04150516088517907</v>
+        <v>0.04003618628600698</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>156</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1356062135.23783</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2541534505.148235</v>
+        <v>2620710912.53185</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1696564065811375</v>
+        <v>0.1503864492694337</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01834324642720966</v>
+        <v>0.02401228851748251</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>167</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1270767297.081173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1589482324.081107</v>
+        <v>1763070000.805629</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06757971718240162</v>
+        <v>0.09230565975089676</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02850908345318903</v>
+        <v>0.02879033246314664</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>794741186.5043418</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2522538818.862632</v>
+        <v>1941053110.445587</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1788192927781819</v>
+        <v>0.1247908764774883</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03741059775510263</v>
+        <v>0.03472820411464712</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1261269452.969557</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3818376899.881057</v>
+        <v>5047424673.267944</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1223012146017824</v>
+        <v>0.1425828086086047</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0380973421590327</v>
+        <v>0.03997557610183591</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>171</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1909188409.136822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3633663337.592324</v>
+        <v>4244647117.561096</v>
       </c>
       <c r="F47" t="n">
-        <v>0.202559154201168</v>
+        <v>0.1474874013351163</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0442410316441963</v>
+        <v>0.04589293389393971</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1816831647.178325</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4072183095.962763</v>
+        <v>3966062442.263534</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08283188838412886</v>
+        <v>0.09317279856409715</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03828438802115561</v>
+        <v>0.03236712570545085</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>157</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2036091578.163911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1709281673.739033</v>
+        <v>1378040936.674154</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1725014421217057</v>
+        <v>0.1621114723270479</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02809301895340211</v>
+        <v>0.02722879920648055</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>854640836.380955</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4105351464.839665</v>
+        <v>2879486551.354988</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1223937598195598</v>
+        <v>0.1238316351408813</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04611344746090103</v>
+        <v>0.04921586802185929</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>164</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2052675713.657857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1007642259.144288</v>
+        <v>1478170798.490188</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1394645701609347</v>
+        <v>0.1934785254441284</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04943079759666549</v>
+        <v>0.03983060167338498</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>503821212.3224435</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4119943201.928789</v>
+        <v>3787563816.592471</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1388814353992799</v>
+        <v>0.08564021125697101</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05871563567522184</v>
+        <v>0.04713012288816681</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>198</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2059971650.404974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2679881371.693021</v>
+        <v>3001783934.809953</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1656844885832262</v>
+        <v>0.1350464568242356</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03457741808094449</v>
+        <v>0.02293270703620288</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>138</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1339940740.426585</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3895462599.942481</v>
+        <v>4659610704.870211</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1419070493467446</v>
+        <v>0.1570524717540349</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03464078432693485</v>
+        <v>0.04694874441399211</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>157</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1947731355.868311</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4057893190.145976</v>
+        <v>3437862970.196236</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1581785523315856</v>
+        <v>0.1978282841630666</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02366973477652505</v>
+        <v>0.03235551787373833</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2028946572.537599</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1861015497.967425</v>
+        <v>1620475304.273035</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1102384004273215</v>
+        <v>0.1191934016525011</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05439396348980664</v>
+        <v>0.0486046305766907</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>930507737.7447513</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3096449174.41808</v>
+        <v>2962282768.693962</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1610390863959701</v>
+        <v>0.1367550846659265</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02644164087197185</v>
+        <v>0.02339198819675873</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>153</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1548224599.736008</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1379812040.101927</v>
+        <v>1437378262.474709</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1508406591331373</v>
+        <v>0.1702805942113225</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03763856889625201</v>
+        <v>0.03728646934469119</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>689906062.1863484</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3331173586.442484</v>
+        <v>3422795865.104212</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08241859009527244</v>
+        <v>0.09106940383700786</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04573338011078257</v>
+        <v>0.04087102703251504</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1665586801.436419</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2841184014.374401</v>
+        <v>2796096225.856901</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1847124992046326</v>
+        <v>0.2042471882886632</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02025967510242317</v>
+        <v>0.02607621832428878</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>152</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1420592060.899725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3215015481.355301</v>
+        <v>2296208618.917262</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1276230131538721</v>
+        <v>0.1197108460467129</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02439980054853635</v>
+        <v>0.02032265761014134</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>165</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1607507700.887735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1628310343.672869</v>
+        <v>1782935532.891814</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1851681853430246</v>
+        <v>0.1777264873608802</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03064523713273705</v>
+        <v>0.04907965553573356</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>814155174.185851</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3641285706.98783</v>
+        <v>5182880464.80144</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08902845447332587</v>
+        <v>0.07067384013854412</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03554177348875634</v>
+        <v>0.04335407432041131</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1820642931.893366</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3739568597.41793</v>
+        <v>3853875025.967965</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1353397135179668</v>
+        <v>0.1709193454130437</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03559332960265233</v>
+        <v>0.03307599474135296</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>150</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1869784316.274607</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4026859901.794696</v>
+        <v>4732467196.917701</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1052163974348068</v>
+        <v>0.1227408752133065</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03032042541774499</v>
+        <v>0.03152708233694015</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>173</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2013429967.891323</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3826265607.36813</v>
+        <v>4330522713.667326</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1575837783203266</v>
+        <v>0.1244193085849393</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03822219836200313</v>
+        <v>0.046365776214936</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>141</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1913132767.953201</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3032542073.845884</v>
+        <v>3351752149.139658</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09296514056596068</v>
+        <v>0.07598428320267628</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04780250025675283</v>
+        <v>0.0336848989222806</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>154</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1516271052.455844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4714202689.209531</v>
+        <v>4164807964.482221</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1466697993309862</v>
+        <v>0.1201255443156565</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03382615273237231</v>
+        <v>0.03250741109070351</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>155</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2357101383.690327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1717631727.778223</v>
+        <v>2006335336.147629</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1537474158212636</v>
+        <v>0.1811470821483664</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04505273135428327</v>
+        <v>0.04644313028640603</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>858815832.385112</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3227002304.574224</v>
+        <v>3068957398.268177</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08785021196397448</v>
+        <v>0.07351082397846459</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03378875559554782</v>
+        <v>0.03743066491947742</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>137</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1613501144.031238</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5410087395.521526</v>
+        <v>4353259516.087304</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1502397514919867</v>
+        <v>0.151575012405154</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03224636495138718</v>
+        <v>0.025854420166932</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>175</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2705043834.107471</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1514810245.031009</v>
+        <v>2267070796.856547</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09496862422791094</v>
+        <v>0.09787168677873642</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0502302280458943</v>
+        <v>0.05331514576724877</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>757405147.1498433</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2919139226.144463</v>
+        <v>3034569576.292353</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07660343632398843</v>
+        <v>0.1076590440316671</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04258867116418544</v>
+        <v>0.0479569468747116</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>181</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1459569616.477685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3798436440.761407</v>
+        <v>2761177196.985329</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1592716896430375</v>
+        <v>0.1439026828775745</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02339131491642086</v>
+        <v>0.02434868401880276</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>164</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1899218216.770581</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2122031621.24107</v>
+        <v>2445914314.936311</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1353055664761161</v>
+        <v>0.1244091902082537</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03112679298751813</v>
+        <v>0.0334810948293666</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1061015763.388775</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3255497567.649614</v>
+        <v>3729132362.303153</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09597212582513874</v>
+        <v>0.08332831295742452</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0311479813037047</v>
+        <v>0.03230913658598412</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1627748737.359929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2015644729.303211</v>
+        <v>2261294093.035688</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1153431787024533</v>
+        <v>0.1212158815142168</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02948681143510326</v>
+        <v>0.02527379548232314</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1007822428.506682</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3741107723.877936</v>
+        <v>4164800283.891174</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1218726883578185</v>
+        <v>0.08372596139675934</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0520175358853766</v>
+        <v>0.05610334014235912</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>167</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1870553846.224149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1467955496.847091</v>
+        <v>1696003712.438144</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1634806312078172</v>
+        <v>0.1250010907002722</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03218722928420131</v>
+        <v>0.03528128610694813</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>733977777.0453331</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4867777834.062554</v>
+        <v>3887662776.381348</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09770634287604238</v>
+        <v>0.09926597462639071</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02587512064505384</v>
+        <v>0.02887870021604558</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2433888959.703773</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3572152771.740058</v>
+        <v>4434247103.431173</v>
       </c>
       <c r="F81" t="n">
-        <v>0.115384332661641</v>
+        <v>0.1217206856032686</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02628905967775654</v>
+        <v>0.03044802113365272</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1786076333.228621</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4333455130.984783</v>
+        <v>5329273740.862836</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1977323712301177</v>
+        <v>0.1421586985442173</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01889856164930936</v>
+        <v>0.02516668717069608</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>168</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2166727586.66017</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1765079710.810032</v>
+        <v>1977698918.734583</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09720421627860733</v>
+        <v>0.1023675916962085</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04465838861181271</v>
+        <v>0.03615555704479598</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>882539811.5004823</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2283669445.974624</v>
+        <v>2450812391.073388</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07728415101098586</v>
+        <v>0.08282231554832296</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04859788580509785</v>
+        <v>0.03620009118744319</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1141834686.448002</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2579058968.754242</v>
+        <v>3599107287.716215</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1794954001541531</v>
+        <v>0.1143411815682646</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04312841757171432</v>
+        <v>0.03578772367824202</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>181</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1289529498.058037</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1724283804.886657</v>
+        <v>2753832340.253108</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1340928232709589</v>
+        <v>0.1328808285325928</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02175009058234539</v>
+        <v>0.02330260604004232</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>862141891.754837</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1223847686.886144</v>
+        <v>1491185589.219209</v>
       </c>
       <c r="F87" t="n">
-        <v>0.121823213855435</v>
+        <v>0.152654024718594</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03263439896125157</v>
+        <v>0.03920994651366256</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>611923905.1536813</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3117143717.758769</v>
+        <v>3517789720.261341</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1156783560244637</v>
+        <v>0.1715220796739219</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03056044730223261</v>
+        <v>0.03534304432504418</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>191</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1558571900.925098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2458354808.297116</v>
+        <v>2834407287.31508</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1044375257595356</v>
+        <v>0.1509015554706756</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02934038977825299</v>
+        <v>0.02979717064975918</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>163</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1229177481.97746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2155030376.576661</v>
+        <v>1934829764.699259</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1359018089381136</v>
+        <v>0.1368551121592364</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03615382505330854</v>
+        <v>0.03702211121626218</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1077515286.913676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1454894791.856147</v>
+        <v>1389595850.709607</v>
       </c>
       <c r="F91" t="n">
-        <v>0.144857062200429</v>
+        <v>0.1391599215460638</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04624287266096393</v>
+        <v>0.05116477601609161</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>727447440.9043937</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2617363829.725049</v>
+        <v>2883153124.060261</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09126517076121565</v>
+        <v>0.08745855947686604</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04643136048665994</v>
+        <v>0.03104422495749824</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1308681907.678404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4130105974.680056</v>
+        <v>3555600061.495507</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1311529382365628</v>
+        <v>0.1012686838160367</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05035966381966402</v>
+        <v>0.03822163353582805</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>145</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2065052979.576414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1586144684.719</v>
+        <v>1771495265.33147</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1558791345652094</v>
+        <v>0.1423974468470078</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0322927244364472</v>
+        <v>0.03870280557727379</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>793072286.8385386</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2308188255.372504</v>
+        <v>2652614207.243176</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1235305503138359</v>
+        <v>0.1200247871427697</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03389435823814421</v>
+        <v>0.05100826115362569</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1154094177.782174</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2026428358.166317</v>
+        <v>1844217902.892066</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1008547019019664</v>
+        <v>0.09124402543377286</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0419377753367885</v>
+        <v>0.04207051330184329</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1013214163.265208</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3686453927.947177</v>
+        <v>3947720882.310858</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1423709288478089</v>
+        <v>0.1582762829671048</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0188708776381873</v>
+        <v>0.01797425887524271</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>154</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1843226995.155181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2931539011.837224</v>
+        <v>2393866006.207873</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09463521045867485</v>
+        <v>0.08898628958556641</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03051797738262918</v>
+        <v>0.03266407412221246</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1465769486.025234</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3046726479.676255</v>
+        <v>2844260502.273843</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1113506026497467</v>
+        <v>0.1060941063845842</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02351370624336171</v>
+        <v>0.0217880868565159</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>153</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1523363229.179703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4224105073.026797</v>
+        <v>4787466489.803937</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1301329825253212</v>
+        <v>0.1543060186235856</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01922469497429198</v>
+        <v>0.02120763126076763</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>147</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2112052625.099535</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3508891042.925589</v>
+        <v>2689479782.150847</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2081695812855331</v>
+        <v>0.2007938737269333</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05352696983270141</v>
+        <v>0.0352523010059252</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>196</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1754445677.765398</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_482.xlsx
+++ b/output/fit_clients/fit_round_482.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1991229927.136961</v>
+        <v>2418684813.04947</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08990868703181332</v>
+        <v>0.09721966124252038</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0341108096523253</v>
+        <v>0.03156592550639863</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1888924031.509674</v>
+        <v>2360274058.167087</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1556215520351927</v>
+        <v>0.1551715872759931</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04746038032141301</v>
+        <v>0.04196738137727581</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4080043237.001443</v>
+        <v>4939956898.974427</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1577264095633029</v>
+        <v>0.1387368898244796</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02869756461017987</v>
+        <v>0.0369991731224238</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4216901606.181395</v>
+        <v>3342927063.709413</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08537478752450463</v>
+        <v>0.09320307782073424</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03155978865756535</v>
+        <v>0.03472405555190793</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2453913423.208778</v>
+        <v>1781086047.954909</v>
       </c>
       <c r="F6" t="n">
-        <v>0.134541087442881</v>
+        <v>0.1188720423514314</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03480935215983778</v>
+        <v>0.04710073162644914</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2360276065.610044</v>
+        <v>3125386436.543731</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07712964599148621</v>
+        <v>0.08492479819480539</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04522435189835441</v>
+        <v>0.03934367334362981</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2574909527.185048</v>
+        <v>2535223173.542194</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2071919594192776</v>
+        <v>0.1629247454442298</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02472485370291044</v>
+        <v>0.02869055392528824</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2298521518.680595</v>
+        <v>2068228226.872446</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1565486951732526</v>
+        <v>0.1273681248469429</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03011471881094265</v>
+        <v>0.03737118100980567</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4613246978.739646</v>
+        <v>5812017456.008159</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1918305955928153</v>
+        <v>0.1765678845059385</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04435847014693724</v>
+        <v>0.03629868588344033</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3873250882.077265</v>
+        <v>3150594690.210027</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1410872291388882</v>
+        <v>0.1502152450287027</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04886650480376363</v>
+        <v>0.03335520363811086</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2383548157.872247</v>
+        <v>2257838950.811725</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1951784269896819</v>
+        <v>0.1449381807974085</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0506866870170522</v>
+        <v>0.04554818850291489</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4531430032.923359</v>
+        <v>4799017731.381808</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08314810810410796</v>
+        <v>0.0838527119361067</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02030765168161257</v>
+        <v>0.03022231047778606</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3391901125.811545</v>
+        <v>3252954149.191338</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1637641899839972</v>
+        <v>0.172782266796558</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02999048793768385</v>
+        <v>0.03811937630286698</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1154693423.292686</v>
+        <v>1609635714.548372</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1002147169163983</v>
+        <v>0.06598403944749336</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03372072820728112</v>
+        <v>0.03461378735906424</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1974850434.382033</v>
+        <v>2038912495.693531</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1115010519957963</v>
+        <v>0.09138517080613152</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04062811577198194</v>
+        <v>0.03660134203436478</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3341258840.563623</v>
+        <v>4335673507.552159</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1281175413976479</v>
+        <v>0.1580584811539214</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04413322122831458</v>
+        <v>0.04163809778216911</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3231138018.45538</v>
+        <v>2478136545.379591</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1264677979475191</v>
+        <v>0.1707655311103412</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02098216043029433</v>
+        <v>0.03307579270568075</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1044619257.28697</v>
+        <v>893074950.8415278</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1472473884689962</v>
+        <v>0.133121254612749</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02483563571940202</v>
+        <v>0.02142837753396587</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1736223275.873323</v>
+        <v>2312599980.178526</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1418754408552329</v>
+        <v>0.1480247086535251</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02970993235198534</v>
+        <v>0.02646101008782082</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1965026586.764654</v>
+        <v>2665925686.508416</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09966025976862888</v>
+        <v>0.08381975358703229</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02837570480269465</v>
+        <v>0.04422681584525223</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3433840294.940767</v>
+        <v>3447035283.218462</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08710366578445007</v>
+        <v>0.103506989607302</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05633099011221191</v>
+        <v>0.05470486954411106</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1485186449.257006</v>
+        <v>1319857844.520784</v>
       </c>
       <c r="F23" t="n">
-        <v>0.145689618668783</v>
+        <v>0.1679344414099234</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03558136435816471</v>
+        <v>0.03333304895611237</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3614543902.526432</v>
+        <v>3173823430.072121</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1464595497362585</v>
+        <v>0.1452027973121275</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03316555168084547</v>
+        <v>0.02860364654227199</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1186580239.744617</v>
+        <v>1115541693.378236</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07864149720836532</v>
+        <v>0.07420218690387971</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02378099624969897</v>
+        <v>0.02160534050764739</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1197881408.141452</v>
+        <v>1443934482.007375</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09185211667902332</v>
+        <v>0.0754981561575285</v>
       </c>
       <c r="G26" t="n">
-        <v>0.029141420773319</v>
+        <v>0.02503824848897046</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3542089566.484223</v>
+        <v>3124960837.554226</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1115546263257067</v>
+        <v>0.1083982531594585</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02664658306465833</v>
+        <v>0.02651977387121771</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3506060585.504473</v>
+        <v>2532398243.017189</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1102590041476106</v>
+        <v>0.1515619101694995</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03040397286249092</v>
+        <v>0.04280746595106721</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5340652772.845066</v>
+        <v>4777578616.710744</v>
       </c>
       <c r="F29" t="n">
-        <v>0.136628978426176</v>
+        <v>0.09975210875162831</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02867322639757703</v>
+        <v>0.03398720662045985</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2329948645.778089</v>
+        <v>1789258774.03029</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08427765106622055</v>
+        <v>0.1208145690065422</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03402761333103025</v>
+        <v>0.02711779759446191</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1434197970.316787</v>
+        <v>1355907264.138363</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09033804515987968</v>
+        <v>0.0959480152046923</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05174985678564749</v>
+        <v>0.04024114673564656</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1737291271.387023</v>
+        <v>1706129222.273966</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1109980316325664</v>
+        <v>0.1196529268261792</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02867403987487272</v>
+        <v>0.03034327446532347</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2427876087.129852</v>
+        <v>1910726600.98094</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1680849015603572</v>
+        <v>0.2046012048713084</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05365244056251268</v>
+        <v>0.06045086216595764</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1244983585.826936</v>
+        <v>1278130800.59321</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07553595266997616</v>
+        <v>0.1070795578677821</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02367053948187316</v>
+        <v>0.0199588336620431</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1008016138.210959</v>
+        <v>928022073.9422375</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1164649289551296</v>
+        <v>0.09181652926718042</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02994325313115547</v>
+        <v>0.04031403784681027</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2165291479.304888</v>
+        <v>2265571424.355136</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1505037686587795</v>
+        <v>0.1444248357023669</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02610953163789179</v>
+        <v>0.02869900252972986</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2214299817.649333</v>
+        <v>1995449156.938026</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1081753123670975</v>
+        <v>0.1114937194582543</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0395663557895662</v>
+        <v>0.03851065092544296</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1812866616.805491</v>
+        <v>1860803585.8232</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0926173237028958</v>
+        <v>0.1194609639622146</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03439277060014672</v>
+        <v>0.03499627381981808</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1513304183.643046</v>
+        <v>1586903898.504254</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1260224628727587</v>
+        <v>0.1275244893418557</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02110436538804483</v>
+        <v>0.02634424750459568</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1523786165.924572</v>
+        <v>1777469340.788607</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1162771977923662</v>
+        <v>0.10142180861474</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0592951984803765</v>
+        <v>0.04724239965368387</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2363320537.121227</v>
+        <v>2681222396.242121</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1056633319871855</v>
+        <v>0.1176741732890048</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0340693467455626</v>
+        <v>0.04583575354534117</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3351893935.249532</v>
+        <v>3712194801.555896</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09851148096397953</v>
+        <v>0.1078266078974695</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04003618628600698</v>
+        <v>0.02884305502049776</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2620710912.53185</v>
+        <v>2940803455.167754</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1503864492694337</v>
+        <v>0.168284700297033</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02401228851748251</v>
+        <v>0.02225006324274332</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1763070000.805629</v>
+        <v>1762386446.137171</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09230565975089676</v>
+        <v>0.1030158425020457</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02879033246314664</v>
+        <v>0.02799863921214313</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1941053110.445587</v>
+        <v>2304454887.273509</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1247908764774883</v>
+        <v>0.1614048948289683</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03472820411464712</v>
+        <v>0.03794469663595101</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5047424673.267944</v>
+        <v>4752774514.5023</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1425828086086047</v>
+        <v>0.1337375443044442</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03997557610183591</v>
+        <v>0.04772093043884051</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4244647117.561096</v>
+        <v>3218286634.372531</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1474874013351163</v>
+        <v>0.1636557882216647</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04589293389393971</v>
+        <v>0.03857019423523221</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3966062442.263534</v>
+        <v>3131575670.069609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09317279856409715</v>
+        <v>0.0850407675291624</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03236712570545085</v>
+        <v>0.03337283302468465</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1378040936.674154</v>
+        <v>1881349720.092344</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1621114723270479</v>
+        <v>0.18782763385223</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02722879920648055</v>
+        <v>0.03544547426179746</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2879486551.354988</v>
+        <v>2609046352.352918</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1238316351408813</v>
+        <v>0.11937310791707</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04921586802185929</v>
+        <v>0.04948332555617087</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1478170798.490188</v>
+        <v>929071806.0167814</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1934785254441284</v>
+        <v>0.1270195079776173</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03983060167338498</v>
+        <v>0.05363411564316662</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3787563816.592471</v>
+        <v>3482963029.857778</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08564021125697101</v>
+        <v>0.1369352278232022</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04713012288816681</v>
+        <v>0.04352170280679468</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3001783934.809953</v>
+        <v>2980080816.461264</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1350464568242356</v>
+        <v>0.1887293224064589</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02293270703620288</v>
+        <v>0.03048070295609989</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4659610704.870211</v>
+        <v>4504212559.190556</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1570524717540349</v>
+        <v>0.1513367652931889</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04694874441399211</v>
+        <v>0.03513860743842217</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3437862970.196236</v>
+        <v>3721590362.535198</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1978282841630666</v>
+        <v>0.2119928302664191</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03235551787373833</v>
+        <v>0.03208761287796769</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1620475304.273035</v>
+        <v>1312650915.318008</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1191934016525011</v>
+        <v>0.1285878319308714</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0486046305766907</v>
+        <v>0.04681743432461541</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2962282768.693962</v>
+        <v>3455870992.94177</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1367550846659265</v>
+        <v>0.1235466737532422</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02339198819675873</v>
+        <v>0.02185240340164211</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1437378262.474709</v>
+        <v>1621523381.320142</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1702805942113225</v>
+        <v>0.2029501530762889</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03728646934469119</v>
+        <v>0.03293014903939469</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3422795865.104212</v>
+        <v>3657281779.855195</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09106940383700786</v>
+        <v>0.1299781779830738</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04087102703251504</v>
+        <v>0.04342084652715707</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2796096225.856901</v>
+        <v>2357788647.623064</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2042471882886632</v>
+        <v>0.1503076250915813</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02607621832428878</v>
+        <v>0.03189308728713455</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2296208618.917262</v>
+        <v>2200056277.096781</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1197108460467129</v>
+        <v>0.1282615568283357</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02032265761014134</v>
+        <v>0.02089720670515929</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1782935532.891814</v>
+        <v>1780041797.593454</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1777264873608802</v>
+        <v>0.1776015682106991</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04907965553573356</v>
+        <v>0.04972361176452942</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5182880464.80144</v>
+        <v>4679424383.458835</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07067384013854412</v>
+        <v>0.1076572382548198</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04335407432041131</v>
+        <v>0.0460966550230532</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3853875025.967965</v>
+        <v>3817433859.464459</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1709193454130437</v>
+        <v>0.1441914154395635</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03307599474135296</v>
+        <v>0.02972581820114479</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4732467196.917701</v>
+        <v>4867196591.140872</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1227408752133065</v>
+        <v>0.1460832848883393</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03152708233694015</v>
+        <v>0.02863568707752005</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4330522713.667326</v>
+        <v>3520661083.637986</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1244193085849393</v>
+        <v>0.1336302354851729</v>
       </c>
       <c r="G66" t="n">
-        <v>0.046365776214936</v>
+        <v>0.04143420450904348</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3351752149.139658</v>
+        <v>2694563598.208853</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07598428320267628</v>
+        <v>0.0934607478522906</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0336848989222806</v>
+        <v>0.05026791272949744</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4164807964.482221</v>
+        <v>4397335448.584291</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1201255443156565</v>
+        <v>0.1201398060785028</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03250741109070351</v>
+        <v>0.03499114293398348</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2006335336.147629</v>
+        <v>2460326300.729828</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1811470821483664</v>
+        <v>0.1110184538998644</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04644313028640603</v>
+        <v>0.0402021085456224</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3068957398.268177</v>
+        <v>2636206310.14206</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07351082397846459</v>
+        <v>0.0903350627487593</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03743066491947742</v>
+        <v>0.04442402642397732</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4353259516.087304</v>
+        <v>3886568757.220083</v>
       </c>
       <c r="F71" t="n">
-        <v>0.151575012405154</v>
+        <v>0.1238249103301991</v>
       </c>
       <c r="G71" t="n">
-        <v>0.025854420166932</v>
+        <v>0.02632751244436902</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2267070796.856547</v>
+        <v>1677980776.939492</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09787168677873642</v>
+        <v>0.09768379358334624</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05331514576724877</v>
+        <v>0.0503975499743269</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3034569576.292353</v>
+        <v>2751175620.730112</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1076590440316671</v>
+        <v>0.07225523382960082</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0479569468747116</v>
+        <v>0.036895800740317</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2761177196.985329</v>
+        <v>2606157057.35906</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1439026828775745</v>
+        <v>0.1274151301379455</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02434868401880276</v>
+        <v>0.02258429806261938</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2445914314.936311</v>
+        <v>2360975084.466032</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1244091902082537</v>
+        <v>0.1079705045480584</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0334810948293666</v>
+        <v>0.02948374238585225</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3729132362.303153</v>
+        <v>3980938386.126293</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08332831295742452</v>
+        <v>0.102835857921826</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03230913658598412</v>
+        <v>0.03347309447294197</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2261294093.035688</v>
+        <v>2195021145.733793</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1212158815142168</v>
+        <v>0.1157899387561453</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02527379548232314</v>
+        <v>0.02605759609720651</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4164800283.891174</v>
+        <v>4745576217.953034</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08372596139675934</v>
+        <v>0.111111544725542</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05610334014235912</v>
+        <v>0.04353087736715418</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1696003712.438144</v>
+        <v>1402187533.110101</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1250010907002722</v>
+        <v>0.1463016061716206</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03528128610694813</v>
+        <v>0.03007173517548207</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3887662776.381348</v>
+        <v>5364682779.499749</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09926597462639071</v>
+        <v>0.1041689055947087</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02887870021604558</v>
+        <v>0.03705346909326798</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4434247103.431173</v>
+        <v>4604564116.564463</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1217206856032686</v>
+        <v>0.1013427689583976</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03044802113365272</v>
+        <v>0.03277430353145513</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5329273740.862836</v>
+        <v>4526451383.673288</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1421586985442173</v>
+        <v>0.1627705593727506</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02516668717069608</v>
+        <v>0.02079528742955264</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1977698918.734583</v>
+        <v>2306820663.107418</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1023675916962085</v>
+        <v>0.1325076182557861</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03615555704479598</v>
+        <v>0.0395983208883819</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2450812391.073388</v>
+        <v>1823886433.799271</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08282231554832296</v>
+        <v>0.08615277979596678</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03620009118744319</v>
+        <v>0.03348284887971462</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3599107287.716215</v>
+        <v>3148303712.755601</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1143411815682646</v>
+        <v>0.1538534478847559</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03578772367824202</v>
+        <v>0.05670843977686101</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2753832340.253108</v>
+        <v>2724851454.917832</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1328808285325928</v>
+        <v>0.146817392293089</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02330260604004232</v>
+        <v>0.02217117409578851</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1491185589.219209</v>
+        <v>1372570212.447809</v>
       </c>
       <c r="F87" t="n">
-        <v>0.152654024718594</v>
+        <v>0.1783858036974015</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03920994651366256</v>
+        <v>0.02950404935330016</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3517789720.261341</v>
+        <v>3390671382.604768</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1715220796739219</v>
+        <v>0.1176832925628634</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03534304432504418</v>
+        <v>0.02536679234802918</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2834407287.31508</v>
+        <v>3220967971.520698</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1509015554706756</v>
+        <v>0.14357661140762</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02979717064975918</v>
+        <v>0.03645900453138545</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1934829764.699259</v>
+        <v>1834732152.434617</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1368551121592364</v>
+        <v>0.1029888890099482</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03702211121626218</v>
+        <v>0.03487088293845692</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1389595850.709607</v>
+        <v>1371359606.421097</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1391599215460638</v>
+        <v>0.1515605801745145</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05116477601609161</v>
+        <v>0.03853399602090172</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2883153124.060261</v>
+        <v>1994392009.979583</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08745855947686604</v>
+        <v>0.09024096760121461</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03104422495749824</v>
+        <v>0.03638325984094097</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3555600061.495507</v>
+        <v>4874960685.595301</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1012686838160367</v>
+        <v>0.1409055697700721</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03822163353582805</v>
+        <v>0.05318659403326098</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1771495265.33147</v>
+        <v>2031462112.602833</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1423974468470078</v>
+        <v>0.105093551751738</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03870280557727379</v>
+        <v>0.02762881877799645</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2652614207.243176</v>
+        <v>2753832886.80047</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1200247871427697</v>
+        <v>0.08431372379936511</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05100826115362569</v>
+        <v>0.03542887132843296</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1844217902.892066</v>
+        <v>1757539269.375096</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09124402543377286</v>
+        <v>0.09297000507312457</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04207051330184329</v>
+        <v>0.03786375950344534</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3947720882.310858</v>
+        <v>5040381021.356005</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1582762829671048</v>
+        <v>0.1582957906013825</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01797425887524271</v>
+        <v>0.01759448936412386</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2393866006.207873</v>
+        <v>2437370385.739311</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08898628958556641</v>
+        <v>0.1243551405030252</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03266407412221246</v>
+        <v>0.02446726754546654</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2844260502.273843</v>
+        <v>2944099972.099161</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1060941063845842</v>
+        <v>0.1296911827619488</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0217880868565159</v>
+        <v>0.02879709155713073</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4787466489.803937</v>
+        <v>3630600170.393648</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1543060186235856</v>
+        <v>0.1684082828404179</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02120763126076763</v>
+        <v>0.01867098683577125</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2689479782.150847</v>
+        <v>2880261025.149497</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2007938737269333</v>
+        <v>0.1786373665607381</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0352523010059252</v>
+        <v>0.05648665246109244</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_482.xlsx
+++ b/output/fit_clients/fit_round_482.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2418684813.04947</v>
+        <v>1960384028.424665</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09721966124252038</v>
+        <v>0.08164748286442786</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03156592550639863</v>
+        <v>0.03673916924080971</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2360274058.167087</v>
+        <v>1661359622.799328</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1551715872759931</v>
+        <v>0.1846554108470697</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04196738137727581</v>
+        <v>0.04879120881365087</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4939956898.974427</v>
+        <v>4390238400.494092</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1387368898244796</v>
+        <v>0.1366948762930836</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0369991731224238</v>
+        <v>0.02955183632712094</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>243</v>
+      </c>
+      <c r="J4" t="n">
+        <v>482</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29.88850251217335</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3342927063.709413</v>
+        <v>4151247713.681519</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09320307782073424</v>
+        <v>0.1060571257086009</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03472405555190793</v>
+        <v>0.03234187016074493</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>203</v>
+      </c>
+      <c r="J5" t="n">
+        <v>482</v>
+      </c>
+      <c r="K5" t="n">
+        <v>35.35202820403276</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1781086047.954909</v>
+        <v>2023126300.39942</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1188720423514314</v>
+        <v>0.1332994257054361</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04710073162644914</v>
+        <v>0.05451085158337807</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3125386436.543731</v>
+        <v>2940163604.457867</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08492479819480539</v>
+        <v>0.09196359379599219</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03934367334362981</v>
+        <v>0.04759873219057787</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2535223173.542194</v>
+        <v>3149731810.694038</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1629247454442298</v>
+        <v>0.1630588975959395</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02869055392528824</v>
+        <v>0.02988337938817645</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2068228226.872446</v>
+        <v>1527039294.881567</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1273681248469429</v>
+        <v>0.1527676827262749</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03737118100980567</v>
+        <v>0.03209944914830348</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5812017456.008159</v>
+        <v>3912480656.421202</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1765678845059385</v>
+        <v>0.139432011494567</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03629868588344033</v>
+        <v>0.0487952857248068</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>366</v>
+      </c>
+      <c r="J10" t="n">
+        <v>482</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3150594690.210027</v>
+        <v>3973146403.876824</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1502152450287027</v>
+        <v>0.1255050924572304</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03335520363811086</v>
+        <v>0.04381447667686153</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>201</v>
+      </c>
+      <c r="J11" t="n">
+        <v>482</v>
+      </c>
+      <c r="K11" t="n">
+        <v>31.47876463810202</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2257838950.811725</v>
+        <v>2585062200.990688</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1449381807974085</v>
+        <v>0.1792270865514637</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04554818850291489</v>
+        <v>0.04776282457548806</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4799017731.381808</v>
+        <v>4882800724.519963</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0838527119361067</v>
+        <v>0.09689683323544591</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03022231047778606</v>
+        <v>0.02301731059966084</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>249</v>
+      </c>
+      <c r="J13" t="n">
+        <v>482</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3252954149.191338</v>
+        <v>3445874931.842704</v>
       </c>
       <c r="F14" t="n">
-        <v>0.172782266796558</v>
+        <v>0.1163726672888375</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03811937630286698</v>
+        <v>0.04408171010994209</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>110</v>
+      </c>
+      <c r="J14" t="n">
+        <v>482</v>
+      </c>
+      <c r="K14" t="n">
+        <v>32.63183585401212</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1609635714.548372</v>
+        <v>1204875032.206291</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06598403944749336</v>
+        <v>0.1015293283800521</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03461378735906424</v>
+        <v>0.04910108917631963</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2038912495.693531</v>
+        <v>2839025840.773729</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09138517080613152</v>
+        <v>0.1031846272651481</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03660134203436478</v>
+        <v>0.04203601605107994</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4335673507.552159</v>
+        <v>4197827575.062962</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1580584811539214</v>
+        <v>0.1693786532920996</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04163809778216911</v>
+        <v>0.03625669824365226</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>236</v>
+      </c>
+      <c r="J17" t="n">
+        <v>481</v>
+      </c>
+      <c r="K17" t="n">
+        <v>28.69793792585346</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2478136545.379591</v>
+        <v>2514097657.462875</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1707655311103412</v>
+        <v>0.1267602863718677</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03307579270568075</v>
+        <v>0.03300170905713624</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>130</v>
+      </c>
+      <c r="J18" t="n">
+        <v>480</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>893074950.8415278</v>
+        <v>872517181.9743222</v>
       </c>
       <c r="F19" t="n">
-        <v>0.133121254612749</v>
+        <v>0.1587720249203703</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02142837753396587</v>
+        <v>0.02108817728210406</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2312599980.178526</v>
+        <v>2713809178.571479</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1480247086535251</v>
+        <v>0.1016442163836514</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02646101008782082</v>
+        <v>0.03173334866127748</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2665925686.508416</v>
+        <v>2023766739.288965</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08381975358703229</v>
+        <v>0.07943750716068268</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04422681584525223</v>
+        <v>0.03077444253625307</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3447035283.218462</v>
+        <v>3915709185.495498</v>
       </c>
       <c r="F22" t="n">
-        <v>0.103506989607302</v>
+        <v>0.1150509636045259</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05470486954411106</v>
+        <v>0.05650911474908571</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>141</v>
+      </c>
+      <c r="J22" t="n">
+        <v>482</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1319857844.520784</v>
+        <v>1209540171.599811</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1679344414099234</v>
+        <v>0.1458683322656529</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03333304895611237</v>
+        <v>0.05039749772178901</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3173823430.072121</v>
+        <v>3725841250.447167</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1452027973121275</v>
+        <v>0.1073074682670493</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02860364654227199</v>
+        <v>0.03336695083934432</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>152</v>
+      </c>
+      <c r="J24" t="n">
+        <v>482</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1115541693.378236</v>
+        <v>1423116598.88465</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07420218690387971</v>
+        <v>0.1131732601425443</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02160534050764739</v>
+        <v>0.01923603155468419</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1443934482.007375</v>
+        <v>954583303.4008657</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0754981561575285</v>
+        <v>0.09834233015897685</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02503824848897046</v>
+        <v>0.0283833634178102</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3124960837.554226</v>
+        <v>4348344003.962898</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1083982531594585</v>
+        <v>0.122882701071293</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02651977387121771</v>
+        <v>0.02010306252192888</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>214</v>
+      </c>
+      <c r="J27" t="n">
+        <v>482</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2532398243.017189</v>
+        <v>3204053488.015077</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1515619101694995</v>
+        <v>0.1482948487930212</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04280746595106721</v>
+        <v>0.03224077770235916</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>119</v>
+      </c>
+      <c r="J28" t="n">
+        <v>480</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4777578616.710744</v>
+        <v>5798247659.764784</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09975210875162831</v>
+        <v>0.1264660516046446</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03398720662045985</v>
+        <v>0.04144774522236986</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>382</v>
+      </c>
+      <c r="J29" t="n">
+        <v>481</v>
+      </c>
+      <c r="K29" t="n">
+        <v>26.4314099638425</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1789258774.03029</v>
+        <v>2249551951.415263</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1208145690065422</v>
+        <v>0.1311900468632947</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02711779759446191</v>
+        <v>0.02996804687818154</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1355907264.138363</v>
+        <v>1453986247.93326</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0959480152046923</v>
+        <v>0.07475212971376839</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04024114673564656</v>
+        <v>0.05006350196645974</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1706129222.273966</v>
+        <v>1223866809.9898</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1196529268261792</v>
+        <v>0.07447667607500179</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03034327446532347</v>
+        <v>0.03584829003862795</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1910726600.98094</v>
+        <v>2975357647.651224</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2046012048713084</v>
+        <v>0.153126829691827</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06045086216595764</v>
+        <v>0.03757785537265638</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1278130800.59321</v>
+        <v>1280775011.275269</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1070795578677821</v>
+        <v>0.1079920433928881</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0199588336620431</v>
+        <v>0.02513980582359151</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>928022073.9422375</v>
+        <v>1164402917.489055</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09181652926718042</v>
+        <v>0.07283802794639313</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04031403784681027</v>
+        <v>0.02819192639713715</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2265571424.355136</v>
+        <v>2729740416.915919</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1444248357023669</v>
+        <v>0.1340644646941266</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02869900252972986</v>
+        <v>0.02634843020469005</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1995449156.938026</v>
+        <v>2555013559.490198</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1114937194582543</v>
+        <v>0.1108387763073891</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03851065092544296</v>
+        <v>0.0347575973347042</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1860803585.8232</v>
+        <v>1509561586.703569</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1194609639622146</v>
+        <v>0.09699315723549906</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03499627381981808</v>
+        <v>0.02774278961223425</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1586903898.504254</v>
+        <v>1990910530.615833</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1275244893418557</v>
+        <v>0.1806309963702473</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02634424750459568</v>
+        <v>0.02570312362381532</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1777469340.788607</v>
+        <v>1127166080.737502</v>
       </c>
       <c r="F40" t="n">
-        <v>0.10142180861474</v>
+        <v>0.1376553525057714</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04724239965368387</v>
+        <v>0.04897158399104214</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2681222396.242121</v>
+        <v>2753053143.21502</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1176741732890048</v>
+        <v>0.1260575750102733</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04583575354534117</v>
+        <v>0.04461595808305647</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3712194801.555896</v>
+        <v>3393656191.865138</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1078266078974695</v>
+        <v>0.1138085355241165</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02884305502049776</v>
+        <v>0.04202384784767391</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>208</v>
+      </c>
+      <c r="J42" t="n">
+        <v>478</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2940803455.167754</v>
+        <v>2608202862.28566</v>
       </c>
       <c r="F43" t="n">
-        <v>0.168284700297033</v>
+        <v>0.1894583846779336</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02225006324274332</v>
+        <v>0.02011490743846557</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1762386446.137171</v>
+        <v>1658698542.944039</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1030158425020457</v>
+        <v>0.08820977182358761</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02799863921214313</v>
+        <v>0.02645312449075834</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2304454887.273509</v>
+        <v>2293843545.055303</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1614048948289683</v>
+        <v>0.1618102008936919</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03794469663595101</v>
+        <v>0.03591350294304412</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4752774514.5023</v>
+        <v>5531648300.032411</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1337375443044442</v>
+        <v>0.1367284621827467</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04772093043884051</v>
+        <v>0.04200392171763642</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>284</v>
+      </c>
+      <c r="J46" t="n">
+        <v>481</v>
+      </c>
+      <c r="K46" t="n">
+        <v>29.37206670819048</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3218286634.372531</v>
+        <v>3779142325.282949</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1636557882216647</v>
+        <v>0.1358694843682473</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03857019423523221</v>
+        <v>0.0562789582811842</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>218</v>
+      </c>
+      <c r="J47" t="n">
+        <v>482</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3131575670.069609</v>
+        <v>3339499214.423762</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0850407675291624</v>
+        <v>0.09121832438630241</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03337283302468465</v>
+        <v>0.03466438699301262</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>241</v>
+      </c>
+      <c r="J48" t="n">
+        <v>479</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1881349720.092344</v>
+        <v>1496300672.52123</v>
       </c>
       <c r="F49" t="n">
-        <v>0.18782763385223</v>
+        <v>0.1733250356212428</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03544547426179746</v>
+        <v>0.03756507170915403</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2609046352.352918</v>
+        <v>3726292629.818604</v>
       </c>
       <c r="F50" t="n">
-        <v>0.11937310791707</v>
+        <v>0.1686025341651448</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04948332555617087</v>
+        <v>0.04479098825031361</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>172</v>
+      </c>
+      <c r="J50" t="n">
+        <v>482</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>929071806.0167814</v>
+        <v>1507482399.797576</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1270195079776173</v>
+        <v>0.1722706955725735</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05363411564316662</v>
+        <v>0.05302832193987378</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3482963029.857778</v>
+        <v>4102973926.727403</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1369352278232022</v>
+        <v>0.1261278665983002</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04352170280679468</v>
+        <v>0.05156752688367272</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>270</v>
+      </c>
+      <c r="J52" t="n">
+        <v>481</v>
+      </c>
+      <c r="K52" t="n">
+        <v>27.99556732194688</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2980080816.461264</v>
+        <v>3634706032.446996</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1887293224064589</v>
+        <v>0.1386993433261584</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03048070295609989</v>
+        <v>0.03251770122975144</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4504212559.190556</v>
+        <v>4238115501.366708</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1513367652931889</v>
+        <v>0.1287930583137831</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03513860743842217</v>
+        <v>0.03632504781397172</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>254</v>
+      </c>
+      <c r="J54" t="n">
+        <v>482</v>
+      </c>
+      <c r="K54" t="n">
+        <v>30.78759058918806</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3721590362.535198</v>
+        <v>3854069910.891304</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2119928302664191</v>
+        <v>0.2140689281108019</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03208761287796769</v>
+        <v>0.02297626759553928</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>238</v>
+      </c>
+      <c r="J55" t="n">
+        <v>481</v>
+      </c>
+      <c r="K55" t="n">
+        <v>27.42404143776126</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1312650915.318008</v>
+        <v>1208509172.133448</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1285878319308714</v>
+        <v>0.1400616729464281</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04681743432461541</v>
+        <v>0.0417376588453332</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3455870992.94177</v>
+        <v>3747248752.943658</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1235466737532422</v>
+        <v>0.1820514105686025</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02185240340164211</v>
+        <v>0.02014877871005847</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>208</v>
+      </c>
+      <c r="J57" t="n">
+        <v>481</v>
+      </c>
+      <c r="K57" t="n">
+        <v>27.7213861921297</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1621523381.320142</v>
+        <v>1586177219.545072</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2029501530762889</v>
+        <v>0.1653507193919672</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03293014903939469</v>
+        <v>0.02605847657931924</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3657281779.855195</v>
+        <v>4169583053.099899</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1299781779830738</v>
+        <v>0.09399327147829191</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04342084652715707</v>
+        <v>0.0367714130881341</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>236</v>
+      </c>
+      <c r="J59" t="n">
+        <v>481</v>
+      </c>
+      <c r="K59" t="n">
+        <v>29.69760858312739</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2357788647.623064</v>
+        <v>2510495853.925518</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1503076250915813</v>
+        <v>0.2021842156723459</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03189308728713455</v>
+        <v>0.0302931161112473</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>97</v>
+      </c>
+      <c r="J60" t="n">
+        <v>477</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2200056277.096781</v>
+        <v>2549072976.352902</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1282615568283357</v>
+        <v>0.1227642620998454</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02089720670515929</v>
+        <v>0.0283753192545488</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1780041797.593454</v>
+        <v>1984562019.268481</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1776015682106991</v>
+        <v>0.1939640029879305</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04972361176452942</v>
+        <v>0.04485295087803751</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4679424383.458835</v>
+        <v>5622652740.371673</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1076572382548198</v>
+        <v>0.075491660791896</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0460966550230532</v>
+        <v>0.03859547632759695</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>240</v>
+      </c>
+      <c r="J63" t="n">
+        <v>482</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3817433859.464459</v>
+        <v>5372896770.835017</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1441914154395635</v>
+        <v>0.1688793532143648</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02972581820114479</v>
+        <v>0.02971949186778299</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>240</v>
+      </c>
+      <c r="J64" t="n">
+        <v>482</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4867196591.140872</v>
+        <v>4730287484.90055</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1460832848883393</v>
+        <v>0.1366711893024245</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02863568707752005</v>
+        <v>0.03143822979510606</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>338</v>
+      </c>
+      <c r="J65" t="n">
+        <v>482</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3520661083.637986</v>
+        <v>4406424859.800851</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1336302354851729</v>
+        <v>0.1338060776133627</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04143420450904348</v>
+        <v>0.05124499520389975</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>238</v>
+      </c>
+      <c r="J66" t="n">
+        <v>482</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2694563598.208853</v>
+        <v>2157796850.028975</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0934607478522906</v>
+        <v>0.06873459043073024</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05026791272949744</v>
+        <v>0.0484083120972983</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4397335448.584291</v>
+        <v>4191401360.146545</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1201398060785028</v>
+        <v>0.1147289024066096</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03499114293398348</v>
+        <v>0.03983631354874122</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>262</v>
+      </c>
+      <c r="J68" t="n">
+        <v>481</v>
+      </c>
+      <c r="K68" t="n">
+        <v>27.35843661231007</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2460326300.729828</v>
+        <v>1892731978.920592</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1110184538998644</v>
+        <v>0.1794061273061058</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0402021085456224</v>
+        <v>0.04993333434854378</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2907,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2636206310.14206</v>
+        <v>2318282656.287617</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0903350627487593</v>
+        <v>0.08256810277131443</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04442402642397732</v>
+        <v>0.04158522199364331</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>72</v>
+      </c>
+      <c r="J70" t="n">
+        <v>481</v>
+      </c>
+      <c r="K70" t="n">
+        <v>15.93721600487905</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3886568757.220083</v>
+        <v>4477588609.942287</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1238249103301991</v>
+        <v>0.1294969119682451</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02632751244436902</v>
+        <v>0.03400748979740321</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>325</v>
+      </c>
+      <c r="J71" t="n">
+        <v>482</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1677980776.939492</v>
+        <v>1634253097.909342</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09768379358334624</v>
+        <v>0.0791982504829134</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0503975499743269</v>
+        <v>0.04802123281497855</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3008,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2751175620.730112</v>
+        <v>2478299858.634526</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07225523382960082</v>
+        <v>0.07981622505887197</v>
       </c>
       <c r="G73" t="n">
-        <v>0.036895800740317</v>
+        <v>0.04970566186861586</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>46</v>
+      </c>
+      <c r="J73" t="n">
+        <v>481</v>
+      </c>
+      <c r="K73" t="n">
+        <v>23.70155462769149</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2606157057.35906</v>
+        <v>2836031705.879957</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1274151301379455</v>
+        <v>0.1818698937375385</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02258429806261938</v>
+        <v>0.02601658680686722</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>142</v>
+      </c>
+      <c r="J74" t="n">
+        <v>474</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2360975084.466032</v>
+        <v>1785055563.296142</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1079705045480584</v>
+        <v>0.1427426721920715</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02948374238585225</v>
+        <v>0.03744553220323482</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3980938386.126293</v>
+        <v>4864363930.857177</v>
       </c>
       <c r="F76" t="n">
-        <v>0.102835857921826</v>
+        <v>0.09884903777322768</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03347309447294197</v>
+        <v>0.03397513454097438</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>230</v>
+      </c>
+      <c r="J76" t="n">
+        <v>482</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2195021145.733793</v>
+        <v>1511363025.307039</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1157899387561453</v>
+        <v>0.1126180028731204</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02605759609720651</v>
+        <v>0.0216224689752384</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3191,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4745576217.953034</v>
+        <v>3108984223.410785</v>
       </c>
       <c r="F78" t="n">
-        <v>0.111111544725542</v>
+        <v>0.1236512315712643</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04353087736715418</v>
+        <v>0.04776794403196284</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>239</v>
+      </c>
+      <c r="J78" t="n">
+        <v>479</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1402187533.110101</v>
+        <v>1899592285.879204</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1463016061716206</v>
+        <v>0.1338921068081685</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03007173517548207</v>
+        <v>0.02845700828018004</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5364682779.499749</v>
+        <v>3983172028.679975</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1041689055947087</v>
+        <v>0.08923903918562477</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03705346909326798</v>
+        <v>0.02501286527178449</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>235</v>
+      </c>
+      <c r="J80" t="n">
+        <v>482</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3290,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4604564116.564463</v>
+        <v>4163904475.462684</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1013427689583976</v>
+        <v>0.08755268690760432</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03277430353145513</v>
+        <v>0.02584377310721079</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>225</v>
+      </c>
+      <c r="J81" t="n">
+        <v>482</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3331,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4526451383.673288</v>
+        <v>4194887467.21368</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1627705593727506</v>
+        <v>0.1441912186334793</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02079528742955264</v>
+        <v>0.02658266742327197</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>317</v>
+      </c>
+      <c r="J82" t="n">
+        <v>481</v>
+      </c>
+      <c r="K82" t="n">
+        <v>27.86842071047283</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3368,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2306820663.107418</v>
+        <v>2325537080.587312</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1325076182557861</v>
+        <v>0.1168545587338148</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0395983208883819</v>
+        <v>0.03290806948054769</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1823886433.799271</v>
+        <v>2268005737.20116</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08615277979596678</v>
+        <v>0.1172078634141883</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03348284887971462</v>
+        <v>0.04662548214734442</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3148303712.755601</v>
+        <v>2928641677.281206</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1538534478847559</v>
+        <v>0.1353648809120193</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05670843977686101</v>
+        <v>0.04334211677834442</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>72</v>
+      </c>
+      <c r="J85" t="n">
+        <v>479</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2724851454.917832</v>
+        <v>2770163049.289295</v>
       </c>
       <c r="F86" t="n">
-        <v>0.146817392293089</v>
+        <v>0.141995176163734</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02217117409578851</v>
+        <v>0.01895660313674176</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1372570212.447809</v>
+        <v>1488474534.217189</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1783858036974015</v>
+        <v>0.1454550158936978</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02950404935330016</v>
+        <v>0.04444714259437046</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3390671382.604768</v>
+        <v>2792403473.117985</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1176832925628634</v>
+        <v>0.1660991531846465</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02536679234802918</v>
+        <v>0.03441535065812181</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>69</v>
+      </c>
+      <c r="J88" t="n">
+        <v>481</v>
+      </c>
+      <c r="K88" t="n">
+        <v>23.68294879763657</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3220967971.520698</v>
+        <v>2346416348.958967</v>
       </c>
       <c r="F89" t="n">
-        <v>0.14357661140762</v>
+        <v>0.1023663194189964</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03645900453138545</v>
+        <v>0.03476494108708759</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1834732152.434617</v>
+        <v>1567735217.674</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1029888890099482</v>
+        <v>0.0984981647634814</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03487088293845692</v>
+        <v>0.03981135391098621</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1371359606.421097</v>
+        <v>1490846428.591609</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1515605801745145</v>
+        <v>0.1825115831516701</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03853399602090172</v>
+        <v>0.04356412543529888</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1994392009.979583</v>
+        <v>2664138888.012868</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09024096760121461</v>
+        <v>0.0700335770233541</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03638325984094097</v>
+        <v>0.03331728763465836</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4874960685.595301</v>
+        <v>4875186936.832706</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1409055697700721</v>
+        <v>0.1019148900428145</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05318659403326098</v>
+        <v>0.03882048736256061</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>231</v>
+      </c>
+      <c r="J93" t="n">
+        <v>481</v>
+      </c>
+      <c r="K93" t="n">
+        <v>28.64864019521326</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2031462112.602833</v>
+        <v>1549055237.769035</v>
       </c>
       <c r="F94" t="n">
-        <v>0.105093551751738</v>
+        <v>0.1055133671493515</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02762881877799645</v>
+        <v>0.0286158789762646</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2753832886.80047</v>
+        <v>2115099952.460734</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08431372379936511</v>
+        <v>0.1035699618840065</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03542887132843296</v>
+        <v>0.04180560094758475</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1757539269.375096</v>
+        <v>2285852097.888173</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09297000507312457</v>
+        <v>0.09115494905612374</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03786375950344534</v>
+        <v>0.04640601479315545</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5040381021.356005</v>
+        <v>3501276915.566871</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1582957906013825</v>
+        <v>0.1114811623696368</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01759448936412386</v>
+        <v>0.02283963608735197</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>251</v>
+      </c>
+      <c r="J97" t="n">
+        <v>481</v>
+      </c>
+      <c r="K97" t="n">
+        <v>19.96115896467491</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2437370385.739311</v>
+        <v>2418007027.363498</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1243551405030252</v>
+        <v>0.09343095762545178</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02446726754546654</v>
+        <v>0.02741125681730185</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>124</v>
+      </c>
+      <c r="J98" t="n">
+        <v>480</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2944099972.099161</v>
+        <v>2905470990.96366</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1296911827619488</v>
+        <v>0.1355990551441095</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02879709155713073</v>
+        <v>0.0242719900786092</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3630600170.393648</v>
+        <v>3119050839.878613</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1684082828404179</v>
+        <v>0.1601915911787437</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01867098683577125</v>
+        <v>0.01976024995964074</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>225</v>
+      </c>
+      <c r="J100" t="n">
+        <v>481</v>
+      </c>
+      <c r="K100" t="n">
+        <v>17.38955813994807</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2880261025.149497</v>
+        <v>3113283428.642028</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1786373665607381</v>
+        <v>0.2074246562890789</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05648665246109244</v>
+        <v>0.04820711254407507</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
